--- a/data/trans_orig/IP16B04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B04-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C458F4F-6ED3-4AE3-940B-04BC25C4686E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8886D2C2-0360-43FD-88DF-B0AAEA28C1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{F2352648-788E-4C53-AAA3-5D21F73620FE}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{2D578F89-C3B6-4EE8-B3B9-48512DB799B3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -85,13 +85,13 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
     <t>55,59%</t>
-  </si>
-  <si>
-    <t>5/9</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -504,7 +504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D072110F-9F31-40E0-81BF-57287EE69C6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54901F10-67BF-46A2-AA49-DA00962251DD}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -722,19 +722,17 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -750,19 +748,17 @@
         <v>11</v>
       </c>
       <c r="M6" s="7">
-        <v>3</v>
-      </c>
-      <c r="N6" s="7">
-        <v>2184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -771,19 +767,17 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
-      </c>
-      <c r="D7" s="7">
-        <v>2184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -799,40 +793,40 @@
         <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
-      </c>
-      <c r="N7" s="7">
-        <v>2184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2184</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -848,17 +842,19 @@
         <v>11</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="N8" s="7">
+        <v>2184</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -867,17 +863,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2184</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -893,17 +891,19 @@
         <v>11</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="N9" s="7">
+        <v>2184</v>
+      </c>
       <c r="O9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -923,7 +923,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>14</v>
@@ -1026,7 +1026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FFCD54-04B3-4A70-ABF9-147234B459B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325D1FBA-ABBA-45FF-900B-35A19A50F6C5}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1248,19 +1248,17 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1276,19 +1274,17 @@
         <v>11</v>
       </c>
       <c r="M6" s="7">
-        <v>2</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1297,19 +1293,17 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1325,40 +1319,40 @@
         <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
-      </c>
-      <c r="N7" s="7">
-        <v>1232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1232</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1374,17 +1368,19 @@
         <v>11</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1232</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1393,17 +1389,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1232</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1419,17 +1417,19 @@
         <v>11</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1232</v>
+      </c>
       <c r="O9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1449,7 +1449,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>14</v>
@@ -1552,7 +1552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E43DC6-619C-49A1-B827-DF7BAC4B8887}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3927094-4DA4-4F84-862C-E9E565DB5A3E}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1694,7 +1694,7 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -1774,31 +1774,29 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7">
-        <v>717</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>772</v>
+        <v>1222</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>14</v>
@@ -1807,7 +1805,7 @@
         <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>1489</v>
+        <v>1222</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>12</v>
@@ -1825,25 +1823,23 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7">
-        <v>717</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>772</v>
+        <v>1222</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>14</v>
@@ -1858,7 +1854,7 @@
         <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>1489</v>
+        <v>1222</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>14</v>
@@ -1872,35 +1868,37 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>717</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>1222</v>
+        <v>772</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>14</v>
@@ -1909,7 +1907,7 @@
         <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>1222</v>
+        <v>1489</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>12</v>
@@ -1927,23 +1925,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>717</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H9" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>1222</v>
+        <v>772</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
@@ -1958,7 +1958,7 @@
         <v>2</v>
       </c>
       <c r="N9" s="7">
-        <v>1222</v>
+        <v>1489</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>14</v>

--- a/data/trans_orig/IP16B04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B04-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8886D2C2-0360-43FD-88DF-B0AAEA28C1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21AC1B14-225F-48B4-9D16-1EB652469A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{2D578F89-C3B6-4EE8-B3B9-48512DB799B3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7AE06A12-875B-4D9E-AE9E-D2B630D7D927}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="27">
   <si>
     <t>Menores según si ha consumido laxantes recetados por el médico en 2007 (Tasa respuesta: 0,24%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
   </si>
   <si>
     <t>Sí</t>
@@ -85,10 +85,16 @@
     <t>100%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>10/15</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>12-15</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -97,10 +103,10 @@
     <t>69,43%</t>
   </si>
   <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
     <t>Menores según si ha consumido laxantes recetados por el médico en 2012 (Tasa respuesta: 0,19%)</t>
-  </si>
-  <si>
-    <t>22,85%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -123,7 +129,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -219,39 +225,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -303,7 +309,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -414,13 +420,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -429,6 +428,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -493,19 +499,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54901F10-67BF-46A2-AA49-DA00962251DD}">
-  <dimension ref="A1:Q11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EE761B-F4FD-45C5-A6AD-7E02264C8744}">
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -814,10 +840,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>2184</v>
+        <v>813</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>12</v>
@@ -842,10 +868,10 @@
         <v>11</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>2184</v>
+        <v>813</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>12</v>
@@ -863,10 +889,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>2184</v>
+        <v>813</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>14</v>
@@ -891,10 +917,10 @@
         <v>11</v>
       </c>
       <c r="M9" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>2184</v>
+        <v>813</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>14</v>
@@ -908,52 +934,50 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>2184</v>
+        <v>1371</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="7">
         <v>2</v>
       </c>
-      <c r="I10" s="7">
-        <v>1436</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="N10" s="7">
+        <v>1371</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="7">
-        <v>5</v>
-      </c>
-      <c r="N10" s="7">
-        <v>3620</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>14</v>
@@ -965,55 +989,163 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
+        <v>1371</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="7">
+        <v>2</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1371</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7">
         <v>2184</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="E12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="7">
         <v>2</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I12" s="7">
         <v>1436</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="7">
+      <c r="J12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="7">
         <v>5</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N12" s="7">
         <v>3620</v>
       </c>
-      <c r="O11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>14</v>
+      <c r="O12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2184</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1436</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="7">
+        <v>5</v>
+      </c>
+      <c r="N13" s="7">
+        <v>3620</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1026,8 +1158,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325D1FBA-ABBA-45FF-900B-35A19A50F6C5}">
-  <dimension ref="A1:Q11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A26C135-49B9-47C2-835C-5BC42A66C5E1}">
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1043,7 +1175,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1153,7 +1285,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>14</v>
@@ -1168,7 +1300,7 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -1340,16 +1472,16 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>1232</v>
+        <v>625</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>14</v>
@@ -1368,16 +1500,16 @@
         <v>11</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>1232</v>
+        <v>625</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>14</v>
@@ -1389,10 +1521,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>1232</v>
+        <v>625</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>14</v>
@@ -1417,10 +1549,10 @@
         <v>11</v>
       </c>
       <c r="M9" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>1232</v>
+        <v>625</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>14</v>
@@ -1434,16 +1566,16 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1873</v>
+        <v>607</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>12</v>
@@ -1455,31 +1587,29 @@
         <v>14</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>627</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>2500</v>
+        <v>607</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>14</v>
@@ -1491,55 +1621,163 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
+        <v>607</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>607</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7">
         <v>1873</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
+      <c r="E12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
         <v>627</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="7">
+      <c r="J12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="7">
         <v>4</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N12" s="7">
         <v>2500</v>
       </c>
-      <c r="O11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>14</v>
+      <c r="O12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1873</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>627</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="7">
+        <v>4</v>
+      </c>
+      <c r="N13" s="7">
+        <v>2500</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1552,8 +1790,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3927094-4DA4-4F84-862C-E9E565DB5A3E}">
-  <dimension ref="A1:Q11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074340B4-F863-4DFA-B387-BEA5FBA10C4F}">
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1569,7 +1807,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1679,7 +1917,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>14</v>
@@ -1694,7 +1932,7 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -1709,7 +1947,7 @@
         <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>14</v>
@@ -1787,31 +2025,31 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>1222</v>
+        <v>605</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>1222</v>
+        <v>605</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>14</v>
@@ -1836,10 +2074,10 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>1222</v>
+        <v>605</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>14</v>
@@ -1851,10 +2089,10 @@
         <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>1222</v>
+        <v>605</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>14</v>
@@ -1874,46 +2112,44 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7">
-        <v>717</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>772</v>
+        <v>617</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>1489</v>
+        <v>617</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>14</v>
@@ -1925,25 +2161,23 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7">
-        <v>717</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>772</v>
+        <v>617</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
@@ -1955,10 +2189,10 @@
         <v>14</v>
       </c>
       <c r="M9" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>1489</v>
+        <v>617</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>14</v>
@@ -1972,52 +2206,52 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>717</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>772</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="7">
         <v>2</v>
       </c>
-      <c r="D10" s="7">
-        <v>1370</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="N10" s="7">
+        <v>1489</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="7">
-        <v>6</v>
-      </c>
-      <c r="I10" s="7">
-        <v>4028</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="7">
-        <v>8</v>
-      </c>
-      <c r="N10" s="7">
-        <v>5398</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>14</v>
@@ -2029,55 +2263,165 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>717</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>772</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="7">
         <v>2</v>
       </c>
-      <c r="D11" s="7">
+      <c r="N11" s="7">
+        <v>1489</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7">
         <v>1370</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="E12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="7">
         <v>6</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I12" s="7">
         <v>4028</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="7">
+      <c r="J12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="7">
         <v>8</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N12" s="7">
         <v>5398</v>
       </c>
-      <c r="O11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>14</v>
+      <c r="O12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1370</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="7">
+        <v>6</v>
+      </c>
+      <c r="I13" s="7">
+        <v>4028</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="7">
+        <v>8</v>
+      </c>
+      <c r="N13" s="7">
+        <v>5398</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP16B04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B04-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21AC1B14-225F-48B4-9D16-1EB652469A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{212386E8-6E21-47FD-B3AB-12F698FBE9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7AE06A12-875B-4D9E-AE9E-D2B630D7D927}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{082FF871-AC5F-45F5-8DEC-DEC84FAE86EB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -112,7 +112,7 @@
     <t>63,75%</t>
   </si>
   <si>
-    <t>Menores según si ha consumido laxantes recetados por el médico en 2015 (Tasa respuesta: 0,38%)</t>
+    <t>Menores según si ha consumido laxantes recetados por el médico en 2016 (Tasa respuesta: 0,38%)</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -530,7 +530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EE761B-F4FD-45C5-A6AD-7E02264C8744}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8B2B37-A92E-45F9-8DCB-285B315D17AA}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1158,7 +1158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A26C135-49B9-47C2-835C-5BC42A66C5E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49284B1-393D-4E3D-A689-3888286042F0}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1790,7 +1790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074340B4-F863-4DFA-B387-BEA5FBA10C4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A853EEA-C953-4B40-B9BB-94984BDEE74A}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/IP16B04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B04-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{212386E8-6E21-47FD-B3AB-12F698FBE9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{282BD00F-B203-4937-A97D-769C2383719A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{082FF871-AC5F-45F5-8DEC-DEC84FAE86EB}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{1051A7D4-914A-4500-B8E3-E2028E9A25B6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -43,10 +43,10 @@
     <t>Menores según si ha consumido laxantes recetados por el médico en 2007 (Tasa respuesta: 0,24%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,16 +73,16 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>—%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
   </si>
   <si>
     <t>3-7</t>
@@ -530,7 +530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8B2B37-A92E-45F9-8DCB-285B315D17AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541857E4-EDB7-441B-91E4-0D48A15F3422}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -648,29 +648,29 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1436</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1436</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -682,13 +682,13 @@
         <v>1436</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -697,24 +697,24 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1436</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1436</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
         <v>14</v>
       </c>
@@ -731,13 +731,13 @@
         <v>1436</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -752,39 +752,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -797,39 +797,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -840,32 +840,32 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
         <v>813</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -874,13 +874,13 @@
         <v>813</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -889,32 +889,32 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
         <v>813</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -923,13 +923,13 @@
         <v>813</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -940,32 +940,32 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="7">
         <v>2</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>1371</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -974,13 +974,13 @@
         <v>1371</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -989,32 +989,32 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="7">
         <v>2</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>1371</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -1023,13 +1023,13 @@
         <v>1371</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1040,34 +1040,34 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
+        <v>1436</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
+        <v>3</v>
+      </c>
+      <c r="I12" s="7">
         <v>2184</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1436</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -1076,13 +1076,13 @@
         <v>3620</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1091,34 +1091,34 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
+        <v>1436</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
+        <v>3</v>
+      </c>
+      <c r="I13" s="7">
         <v>2184</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1436</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -1127,13 +1127,13 @@
         <v>3620</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1158,7 +1158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49284B1-393D-4E3D-A689-3888286042F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A4C05B-40AF-43CA-9253-CD527BEF2E6D}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1279,31 +1279,31 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -1312,13 +1312,13 @@
         <v>1268</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1330,31 +1330,31 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
+        <v>627</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
         <v>641</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>627</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -1363,13 +1363,13 @@
         <v>1268</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1384,39 +1384,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1429,39 +1429,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1472,32 +1472,32 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
         <v>625</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -1506,13 +1506,13 @@
         <v>625</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1521,32 +1521,32 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
         <v>625</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -1555,13 +1555,13 @@
         <v>625</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1572,32 +1572,32 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
         <v>607</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -1606,13 +1606,13 @@
         <v>607</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1621,32 +1621,32 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
         <v>607</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -1655,13 +1655,13 @@
         <v>607</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1672,34 +1672,34 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
+        <v>627</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
+        <v>3</v>
+      </c>
+      <c r="I12" s="7">
         <v>1873</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>627</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -1708,13 +1708,13 @@
         <v>2500</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1723,34 +1723,34 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
+        <v>627</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
+        <v>3</v>
+      </c>
+      <c r="I13" s="7">
         <v>1873</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>627</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -1759,13 +1759,13 @@
         <v>2500</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1790,7 +1790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A853EEA-C953-4B40-B9BB-94984BDEE74A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66A4060-75F5-458F-A144-0D93053DBAFB}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1908,34 +1908,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
+        <v>2034</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
         <v>652</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>2034</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -1944,13 +1944,13 @@
         <v>2686</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1959,34 +1959,34 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
+        <v>2034</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
         <v>652</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2034</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -1995,13 +1995,13 @@
         <v>2686</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2012,29 +2012,29 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>605</v>
+      </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>605</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>14</v>
@@ -2046,13 +2046,13 @@
         <v>605</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,24 +2061,24 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>605</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>605</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
         <v>14</v>
       </c>
@@ -2095,13 +2095,13 @@
         <v>605</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2112,29 +2112,29 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>617</v>
+      </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>14</v>
@@ -2146,13 +2146,13 @@
         <v>617</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2161,24 +2161,24 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>617</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7">
-        <v>617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
         <v>14</v>
       </c>
@@ -2195,13 +2195,13 @@
         <v>617</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2215,31 +2215,31 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>717</v>
+        <v>772</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>772</v>
+        <v>717</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -2248,13 +2248,13 @@
         <v>1489</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2266,31 +2266,31 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
+        <v>772</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
         <v>717</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>772</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -2299,13 +2299,13 @@
         <v>1489</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,34 +2316,34 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7">
+        <v>4028</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
         <v>2</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>1370</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="7">
-        <v>6</v>
-      </c>
-      <c r="I12" s="7">
-        <v>4028</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -2352,13 +2352,13 @@
         <v>5398</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2367,34 +2367,34 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4028</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>1370</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="7">
-        <v>6</v>
-      </c>
-      <c r="I13" s="7">
-        <v>4028</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -2403,13 +2403,13 @@
         <v>5398</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
